--- a/config/testcases/Report_MC.RS01DienThe(Clone).xlsx
+++ b/config/testcases/Report_MC.RS01DienThe(Clone).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="132">
   <si>
     <t>TCID</t>
   </si>
@@ -301,6 +301,9 @@
     <t>Kiểm tra audio câu hoàn chỉnh</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>getAudiosSourceByLocator</t>
   </si>
   <si>
@@ -340,7 +343,7 @@
     <t>Chờ text câu 2 xuất hiện (L2)</t>
   </si>
   <si>
-    <t>Mic-Disable</t>
+    <t>ContenDrag</t>
   </si>
   <si>
     <t>path,8,9TextData</t>
@@ -406,7 +409,7 @@
     <t>waitForObjectNotPresent</t>
   </si>
   <si>
-    <t>MicroDienThe,60</t>
+    <t>GamePlayDrag,60</t>
   </si>
   <si>
     <t>Loop</t>
@@ -2034,16 +2037,16 @@
       <c r="E16" s="32"/>
       <c r="F16" s="19"/>
       <c r="G16" s="28" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>57</v>
@@ -2060,27 +2063,27 @@
         <v>75</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="28" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H17" s="29" t="s">
         <v>73</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -2091,20 +2094,20 @@
         <v>23</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="38" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H18" s="44"/>
       <c r="I18" s="40"/>
@@ -2119,16 +2122,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="24" t="s">
@@ -2141,10 +2144,10 @@
         <v>56</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
@@ -2164,7 +2167,7 @@
         <v>63</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="28" t="s">
@@ -2186,7 +2189,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="52"/>
@@ -2198,10 +2201,10 @@
         <v>66</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K21" s="41" t="s">
         <v>69</v>
@@ -2218,7 +2221,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="27"/>
@@ -2230,10 +2233,10 @@
         <v>66</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K22" s="41" t="s">
         <v>69</v>
@@ -2250,7 +2253,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
@@ -2262,10 +2265,10 @@
         <v>66</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K23" s="41" t="s">
         <v>69</v>
@@ -2282,7 +2285,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="32"/>
@@ -2298,7 +2301,7 @@
       </c>
       <c r="J24" s="37"/>
       <c r="K24" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="42"/>
@@ -2312,7 +2315,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
@@ -2328,7 +2331,7 @@
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
@@ -2342,7 +2345,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="32"/>
@@ -2354,11 +2357,11 @@
         <v>73</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
@@ -2372,7 +2375,7 @@
         <v>45</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D27" s="34" t="s">
         <v>78</v>
@@ -2391,10 +2394,10 @@
         <v>81</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
@@ -2408,7 +2411,7 @@
         <v>49</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D28" s="34" t="s">
         <v>78</v>
@@ -2427,10 +2430,10 @@
         <v>81</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
@@ -2444,13 +2447,13 @@
         <v>53</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>78</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="38" t="s">
@@ -2463,10 +2466,10 @@
         <v>81</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
@@ -2570,19 +2573,19 @@
       <c r="E33" s="32"/>
       <c r="F33" s="19"/>
       <c r="G33" s="28" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
@@ -2596,27 +2599,27 @@
         <v>53</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="28" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H34" s="29" t="s">
         <v>73</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J34" s="30"/>
       <c r="K34" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -2627,20 +2630,20 @@
         <v>31</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="38" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H35" s="44"/>
       <c r="I35" s="40"/>
@@ -2658,13 +2661,13 @@
         <v>45</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="28" t="s">
@@ -2768,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
